--- a/문서/자유수강권자 추가(3월)/점핑클레이(수강).xlsx
+++ b/문서/자유수강권자 추가(3월)/점핑클레이(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>주야</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>1학년</t>
+  </si>
+  <si>
+    <t>1반</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>김민성</t>
   </si>
   <si>
     <t>3반</t>
@@ -69,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="36">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -274,8 +283,64 @@
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -354,8 +419,32 @@
     <fill>
       <patternFill/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -738,11 +827,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -843,6 +1052,38 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="25" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="26" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="27" fillId="27" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="28" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="29" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="30" fillId="30" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="31" fillId="31" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="32" fillId="32" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="33" fillId="33" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1144,7 +1385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,6 +1471,32 @@
         <v>-21230</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c s="27" r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c s="28" r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c s="29" r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c s="30" r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c s="31" r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c s="32" r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c s="33" r="G4" t="n">
+        <v>21230</v>
+      </c>
+      <c s="34" r="H4" t="n">
+        <v>-21230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
